--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81030BF-4DA6-4A8E-B2CD-89C0EE66C24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +345,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f xml:space="preserve"> A1 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f xml:space="preserve"> B1 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:D2" si="0" xml:space="preserve"> C1 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f t="shared" ref="A3:A9" si="1" xml:space="preserve"> A2 + 1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81030BF-4DA6-4A8E-B2CD-89C0EE66C24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3011FA7-7044-4512-96B9-20C7DCB3A832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -391,41 +391,69 @@
         <f t="shared" ref="A3:A9" si="1" xml:space="preserve"> A2 + 1</f>
         <v>3</v>
       </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B9" si="2" xml:space="preserve"> B2 + 1</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3011FA7-7044-4512-96B9-20C7DCB3A832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734F0F0E-C0E0-4BD6-A378-03CC9E6C91B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -378,7 +378,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:D2" si="0" xml:space="preserve"> C1 + 1</f>
+        <f t="shared" ref="C2:D9" si="0" xml:space="preserve"> C1 + 1</f>
         <v>4</v>
       </c>
       <c r="D2">
@@ -395,6 +395,10 @@
         <f t="shared" ref="B3:B9" si="2" xml:space="preserve"> B2 + 1</f>
         <v>4</v>
       </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -405,6 +409,10 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -415,6 +423,10 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -425,6 +437,10 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -435,6 +451,10 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -445,6 +465,10 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -454,6 +478,10 @@
       <c r="B9">
         <f t="shared" si="2"/>
         <v>10</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734F0F0E-C0E0-4BD6-A378-03CC9E6C91B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4933A98A-77E7-4A31-BB1C-25E776FEFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -399,6 +399,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -413,6 +417,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -427,6 +435,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -441,6 +453,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -455,6 +471,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -469,6 +489,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -483,6 +507,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4933A98A-77E7-4A31-BB1C-25E776FEFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D45829A-392D-4996-9E21-CF2706F9147B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Relative</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,8 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,173 +365,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f xml:space="preserve"> A1 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <f xml:space="preserve"> B1 + 1</f>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:D9" si="0" xml:space="preserve"> C1 + 1</f>
+      <c r="D2">
         <v>4</v>
-      </c>
-      <c r="D2">
-        <f t="shared" si="0"/>
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A9" si="1" xml:space="preserve"> A2 + 1</f>
+        <f xml:space="preserve"> A2 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f xml:space="preserve"> B2 + 1</f>
         <v>3</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B9" si="2" xml:space="preserve"> B2 + 1</f>
+      <c r="C3">
+        <f t="shared" ref="C3:D10" si="0" xml:space="preserve"> C2 + 1</f>
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f t="shared" si="0"/>
         <v>5</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A4:A10" si="1" xml:space="preserve"> A3 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B10" si="2" xml:space="preserve"> B3 + 1</f>
         <v>4</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="2"/>
+      <c r="C4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>6</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>8</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>9</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>10</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D9">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D45829A-392D-4996-9E21-CF2706F9147B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8834B5-17D6-4133-9F0D-5D710957C831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,15 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +381,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -394,8 +394,20 @@
       <c r="D2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <f xml:space="preserve"> A2 + 1</f>
         <v>2</v>
@@ -413,7 +425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="1" xml:space="preserve"> A3 + 1</f>
         <v>3</v>
@@ -431,7 +443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -449,7 +461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -467,7 +479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -485,7 +497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -503,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -521,7 +533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8834B5-17D6-4133-9F0D-5D710957C831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B842ADB4-B998-42FA-A5FE-D36E89CFA3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,6 +424,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="F3">
+        <f xml:space="preserve"> $F$2 + G2</f>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -442,6 +449,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -460,6 +470,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -478,6 +491,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -496,6 +512,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -514,6 +533,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -532,6 +554,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -549,6 +574,9 @@
       <c r="D10">
         <f t="shared" si="0"/>
         <v>12</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B842ADB4-B998-42FA-A5FE-D36E89CFA3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910688A5-E7E5-42B8-A2CB-3C68983C44C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Relative</t>
+  </si>
+  <si>
+    <t>Absolute</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -380,6 +383,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -424,12 +433,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <f xml:space="preserve"> $F$2 + G2</f>
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>3</v>
+      <c r="H3">
+        <f xml:space="preserve"> $F$2 + H2</f>
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> $F$2 + I2</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -450,7 +464,16 @@
         <v>6</v>
       </c>
       <c r="G4">
+        <f t="shared" ref="G4:G10" si="3" xml:space="preserve"> $F$2 + G3</f>
         <v>4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H10" si="4" xml:space="preserve"> $F$2 + H3</f>
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="5" xml:space="preserve"> $F$2 + I3</f>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -471,7 +494,16 @@
         <v>7</v>
       </c>
       <c r="G5">
+        <f t="shared" si="3"/>
         <v>5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -492,7 +524,16 @@
         <v>8</v>
       </c>
       <c r="G6">
+        <f t="shared" si="3"/>
         <v>6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -513,7 +554,16 @@
         <v>9</v>
       </c>
       <c r="G7">
+        <f t="shared" si="3"/>
         <v>7</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -534,7 +584,16 @@
         <v>10</v>
       </c>
       <c r="G8">
+        <f t="shared" si="3"/>
         <v>8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -555,7 +614,16 @@
         <v>11</v>
       </c>
       <c r="G9">
+        <f t="shared" si="3"/>
         <v>9</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -576,12 +644,22 @@
         <v>12</v>
       </c>
       <c r="G10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910688A5-E7E5-42B8-A2CB-3C68983C44C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8B4359-6DC5-4FAE-B03F-7ECD8E217591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +390,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -415,8 +415,16 @@
       <c r="I2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <f>A$2 + I2</f>
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <f>B$2 + J2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <f xml:space="preserve"> A2 + 1</f>
         <v>2</v>
@@ -445,8 +453,16 @@
         <f xml:space="preserve"> $F$2 + I2</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <f>A$2 + I3</f>
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <f>B$2 + J3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="1" xml:space="preserve"> A3 + 1</f>
         <v>3</v>
@@ -475,8 +491,12 @@
         <f t="shared" ref="I4:I10" si="5" xml:space="preserve"> $F$2 + I3</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="6">A$2 + I4</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -505,8 +525,12 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -535,8 +559,12 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -565,8 +593,12 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -595,8 +627,12 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -625,8 +661,12 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -654,6 +694,10 @@
       <c r="I10">
         <f t="shared" si="5"/>
         <v>12</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8B4359-6DC5-4FAE-B03F-7ECD8E217591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5BFF5-0CFC-4238-967E-8F879ABA6973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +390,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -416,15 +416,23 @@
         <v>4</v>
       </c>
       <c r="K2">
-        <f>A$2 + I2</f>
-        <v>5</v>
+        <f>A$2 + B2</f>
+        <v>3</v>
       </c>
       <c r="L2">
-        <f>B$2 + J2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <f>B$2 + C2</f>
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <f xml:space="preserve"> $A2 + B2</f>
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <f xml:space="preserve"> $A2 + C2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <f xml:space="preserve"> A2 + 1</f>
         <v>2</v>
@@ -454,21 +462,29 @@
         <v>5</v>
       </c>
       <c r="K3">
-        <f>A$2 + I3</f>
-        <v>6</v>
+        <f t="shared" ref="K3:K10" si="1">A$2 + B3</f>
+        <v>4</v>
       </c>
       <c r="L3">
-        <f>B$2 + J3</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L3:L9" si="2">B$2 + C3</f>
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M10" si="3" xml:space="preserve"> $A3 + B3</f>
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N10" si="4" xml:space="preserve"> $A3 + C3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A10" si="1" xml:space="preserve"> A3 + 1</f>
+        <f t="shared" ref="A4:A10" si="5" xml:space="preserve"> A3 + 1</f>
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B10" si="2" xml:space="preserve"> B3 + 1</f>
+        <f t="shared" ref="B4:B10" si="6" xml:space="preserve"> B3 + 1</f>
         <v>4</v>
       </c>
       <c r="C4">
@@ -480,224 +496,308 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G10" si="3" xml:space="preserve"> $F$2 + G3</f>
+        <f t="shared" ref="G4:G10" si="7" xml:space="preserve"> $F$2 + G3</f>
         <v>4</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H10" si="4" xml:space="preserve"> $F$2 + H3</f>
+        <f t="shared" ref="H4:H10" si="8" xml:space="preserve"> $F$2 + H3</f>
         <v>5</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I10" si="5" xml:space="preserve"> $F$2 + I3</f>
+        <f t="shared" ref="I4:I10" si="9" xml:space="preserve"> $F$2 + I3</f>
         <v>6</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K10" si="6">A$2 + I4</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="I6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <f>B$2 + C10</f>
+        <v>13</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="6"/>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -707,5 +807,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="M2 M3:M10" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5BFF5-0CFC-4238-967E-8F879ABA6973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BE4B31-DB01-41AD-B2D7-5A9EC8D741D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Relative</t>
   </si>
   <si>
     <t>Absolute</t>
+  </si>
+  <si>
+    <t>Mixed</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,6 +392,12 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -801,9 +810,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BE4B31-DB01-41AD-B2D7-5A9EC8D741D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F81498-596C-40ED-8469-AAA6EECE7D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lesson" sheetId="1" r:id="rId1"/>
+    <sheet name="Practice" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Relative</t>
   </si>
@@ -43,6 +44,36 @@
   </si>
   <si>
     <t>Mixed</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Ruler</t>
+  </si>
+  <si>
+    <t>Marker</t>
+  </si>
+  <si>
+    <t>Pencil</t>
   </si>
 </sst>
 </file>
@@ -373,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -821,4 +852,121 @@
     <ignoredError sqref="M2 M3:M10" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EB1D8-6BEC-4439-B1E9-AFB91A06B693}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>350</v>
+      </c>
+      <c r="D5">
+        <v>0.08</v>
+      </c>
+      <c r="E5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F81498-596C-40ED-8469-AAA6EECE7D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6915FA7D-FFC0-4A7B-8224-9B4F3EF73722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lesson" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Relative</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Pencil</t>
+  </si>
+  <si>
+    <t>Order of Operations</t>
+  </si>
+  <si>
+    <t>Excel follows PEMDAS:</t>
+  </si>
+  <si>
+    <t>Parentheses → Exponents → Multiplication/Division → Addition/Subtraction.</t>
   </si>
 </sst>
 </file>
@@ -117,8 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,33 +414,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -840,11 +852,36 @@
         <v>20</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -858,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EB1D8-6BEC-4439-B1E9-AFB91A06B693}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6915FA7D-FFC0-4A7B-8224-9B4F3EF73722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FFBA00-DA4E-4AFB-8C4A-59CA68706641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lesson" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -416,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -895,26 +898,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EB1D8-6BEC-4439-B1E9-AFB91A06B693}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FFBA00-DA4E-4AFB-8C4A-59CA68706641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68946A07-3EF2-4407-B942-02FB7D7A3ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Relative</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Parentheses → Exponents → Multiplication/Division → Addition/Subtraction.</t>
+  </si>
+  <si>
+    <t>Total Price</t>
   </si>
 </sst>
 </file>
@@ -896,15 +899,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EB1D8-6BEC-4439-B1E9-AFB91A06B693}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -915,13 +921,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -932,13 +941,17 @@
         <v>200</v>
       </c>
       <c r="D2">
+        <f xml:space="preserve"> B2 * C2</f>
+        <v>2400</v>
+      </c>
+      <c r="E2">
         <v>0.05</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -948,14 +961,14 @@
       <c r="C3">
         <v>500</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -965,14 +978,14 @@
       <c r="C4">
         <v>100</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -982,14 +995,14 @@
       <c r="C5">
         <v>350</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.08</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -999,10 +1012,10 @@
       <c r="C6">
         <v>150</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.05</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68946A07-3EF2-4407-B942-02FB7D7A3ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B654BD-E6AA-490E-ADE4-113E8C0FCA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Relative</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Total Price</t>
+  </si>
+  <si>
+    <t>Discount Amount</t>
   </si>
 </sst>
 </file>
@@ -899,18 +902,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EB1D8-6BEC-4439-B1E9-AFB91A06B693}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -929,8 +933,11 @@
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -951,7 +958,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -961,6 +968,10 @@
       <c r="C3">
         <v>500</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0" xml:space="preserve"> B3 * C3</f>
+        <v>4000</v>
+      </c>
       <c r="E3">
         <v>0.1</v>
       </c>
@@ -968,7 +979,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -978,6 +989,10 @@
       <c r="C4">
         <v>100</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -985,7 +1000,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -995,6 +1010,10 @@
       <c r="C5">
         <v>350</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
       <c r="E5">
         <v>0.08</v>
       </c>
@@ -1002,7 +1021,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1011,6 +1030,10 @@
       </c>
       <c r="C6">
         <v>150</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
       <c r="E6">
         <v>0.05</v>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B654BD-E6AA-490E-ADE4-113E8C0FCA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04854718-177B-4D7C-BC8A-1F2B23A0AA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Relative</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Discount Amount</t>
+  </si>
+  <si>
+    <t>Tax Amount</t>
   </si>
 </sst>
 </file>
@@ -902,19 +905,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EB1D8-6BEC-4439-B1E9-AFB91A06B693}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="10.90625" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -936,8 +940,11 @@
       <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -957,8 +964,12 @@
       <c r="F2">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <f xml:space="preserve"> D2 * E2</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -978,8 +989,12 @@
       <c r="F3">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="1" xml:space="preserve"> D3 * E3</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -999,8 +1014,12 @@
       <c r="F4">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1020,8 +1039,12 @@
       <c r="F5">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1040,6 +1063,10 @@
       </c>
       <c r="F6">
         <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04854718-177B-4D7C-BC8A-1F2B23A0AA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9212CB-5117-4397-A2C4-D3EC78A38949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -908,7 +908,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -968,6 +968,10 @@
         <f xml:space="preserve"> D2 * E2</f>
         <v>120</v>
       </c>
+      <c r="H2">
+        <f xml:space="preserve"> (D2 - G2) *F2</f>
+        <v>171</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -993,6 +997,10 @@
         <f t="shared" ref="G3:G6" si="1" xml:space="preserve"> D3 * E3</f>
         <v>400</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="2" xml:space="preserve"> (D3 - G3) *F3</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1018,6 +1026,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>112.5</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1043,6 +1055,10 @@
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>144.9</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1067,6 +1083,10 @@
       <c r="G6">
         <f t="shared" si="1"/>
         <v>150</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>213.75</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9212CB-5117-4397-A2C4-D3EC78A38949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04258143-0C72-464F-8AEB-DD676D40236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Relative</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Tax Amount</t>
+  </si>
+  <si>
+    <t>Final Price</t>
   </si>
 </sst>
 </file>
@@ -905,20 +908,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EB1D8-6BEC-4439-B1E9-AFB91A06B693}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="10.90625" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -943,8 +947,11 @@
       <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -972,8 +979,12 @@
         <f xml:space="preserve"> (D2 - G2) *F2</f>
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <f xml:space="preserve"> D2 - G2 + H2</f>
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1001,8 +1012,12 @@
         <f t="shared" ref="H3:H6" si="2" xml:space="preserve"> (D3 - G3) *F3</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="3" xml:space="preserve"> D3 - G3 + H3</f>
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1030,8 +1045,12 @@
         <f t="shared" si="2"/>
         <v>112.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>1612.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1078,12 @@
         <f t="shared" si="2"/>
         <v>144.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2076.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1087,6 +1110,10 @@
       <c r="H6">
         <f t="shared" si="2"/>
         <v>213.75</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>3063.75</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Formula_Foundations/Formula_foundations.xlsx
+++ b/stage_2/Formula_Foundations/Formula_foundations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Formula_Foundations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04258143-0C72-464F-8AEB-DD676D40236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922D506D-C19F-47E6-B972-055B0AE28E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -908,21 +908,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EB1D8-6BEC-4439-B1E9-AFB91A06B693}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="10.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,19 +939,19 @@
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -969,22 +969,22 @@
         <v>0.05</v>
       </c>
       <c r="F2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G2">
         <f xml:space="preserve"> D2 * E2</f>
         <v>120</v>
       </c>
+      <c r="G2">
+        <f xml:space="preserve"> (D2 - F2) * $J$2</f>
+        <v>171</v>
+      </c>
       <c r="H2">
-        <f xml:space="preserve"> (D2 - G2) *F2</f>
-        <v>171</v>
-      </c>
-      <c r="I2">
-        <f xml:space="preserve"> D2 - G2 + H2</f>
+        <f xml:space="preserve"> D2 - F2 + G2</f>
         <v>2451</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1002,22 +1002,19 @@
         <v>0.1</v>
       </c>
       <c r="F3">
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" ref="F3:F6" si="1" xml:space="preserve"> D3 * E3</f>
+        <v>400</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G6" si="1" xml:space="preserve"> D3 * E3</f>
-        <v>400</v>
+        <f xml:space="preserve"> (D3 - F3) * $J$2</f>
+        <v>270</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H6" si="2" xml:space="preserve"> (D3 - G3) *F3</f>
-        <v>270</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I6" si="3" xml:space="preserve"> D3 - G3 + H3</f>
+        <f xml:space="preserve"> D3 - F3 + G3</f>
         <v>3870</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1035,22 +1032,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G4">
+        <f xml:space="preserve"> (D4 - F4) * $J$2</f>
+        <v>112.5</v>
+      </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>112.5</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> D4 - F4 + G4</f>
         <v>1612.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1068,22 +1062,19 @@
         <v>0.08</v>
       </c>
       <c r="F5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G5">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
+      <c r="G5">
+        <f xml:space="preserve"> (D5 - F5) * $J$2</f>
+        <v>144.9</v>
+      </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>144.9</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> D5 - F5 + G5</f>
         <v>2076.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1101,18 +1092,15 @@
         <v>0.05</v>
       </c>
       <c r="F6">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G6">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
+      <c r="G6">
+        <f xml:space="preserve"> (D6 - F6) * $J$2</f>
+        <v>213.75</v>
+      </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>213.75</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> D6 - F6 + G6</f>
         <v>3063.75</v>
       </c>
     </row>
